--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8708,7 +8708,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -21736,12 +21736,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
+          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -21755,7 +21755,7 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>4770</v>
+        <v>5190</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,12 +21784,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
+          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -21803,7 +21803,7 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>5190</v>
+        <v>4770</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -21736,12 +21736,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
+          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -21755,7 +21755,7 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>5190</v>
+        <v>4770</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,12 +21784,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
+          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -21803,7 +21803,7 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>4770</v>
+        <v>5190</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -21736,12 +21736,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
+          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -21755,7 +21755,7 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>4770</v>
+        <v>5190</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,12 +21784,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
+          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -21803,7 +21803,7 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>5190</v>
+        <v>4770</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Mineria</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Mineria</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F463" t="n">
@@ -22759,7 +22759,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F467" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -21736,12 +21736,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
+          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -21755,7 +21755,7 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>4770</v>
+        <v>5190</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,12 +21784,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
+          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -21803,7 +21803,7 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>5190</v>
+        <v>4770</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -21736,12 +21736,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
+          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -21755,7 +21755,7 @@
         </is>
       </c>
       <c r="F446" t="n">
-        <v>5190</v>
+        <v>4770</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,12 +21784,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Modificación Línea 110 kv Diego de Almagro - Potrerillos</t>
+          <t>Mejoramiento de la Ventilación Principal de la Mina</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -21803,7 +21803,7 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>4770</v>
+        <v>5190</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Los Coihues S.A.</t>
+          <t>Santa Maria de Diego Almagro SpA.</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -16519,7 +16519,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F337" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MANTOS COPPER S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -21415,7 +21415,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A.</t>
+          <t>MANTOVERDE S.A.</t>
         </is>
       </c>
       <c r="F439" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -16423,7 +16423,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Bautista Bosch Ostale</t>
+          <t>Empresa Eléctrica Diego de Almagro SpA</t>
         </is>
       </c>
       <c r="F335" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F284" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -22951,7 +22951,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F471" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/01/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -22807,7 +22807,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F468" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -22807,7 +22807,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PV Salvador Spa</t>
+          <t>PV Salvador S.A</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Highview Enlasa SpA</t>
+          <t>Enlasa Energia S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Los Coihues S.A.</t>
+          <t>Sierra Soleada Solar SpA</t>
         </is>
       </c>
       <c r="F9" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>17/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA</t>
+          <t>Arcadia Generación Solar S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -23143,7 +23143,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F475" t="n">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSPORTE REGIONAL DE ÁCIDO SULFÚRICO - III REGIÓN (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15</v>
+        <v>860</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2431273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16951,11 +16951,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16999,11 +16999,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE EQUIPOS DE COMPENSACIÓN DE POTENCIA REACTIVA EN SUBESTACIÓN DIEGO DE ALMAGRO</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6739039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
+          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>"Transporte de Acido Sulfurico por Regiones II, III y IV "</t>
+          <t>TRANSPORTE DE SOLUCION DESDE POTRERILLOS A HIDROMETALURGIA DE CODELCO, DIVISIÓN SALVADOR</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5730973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16951,11 +16951,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16999,11 +16999,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">

--- a/data/Diego de Almagro.xlsx
+++ b/data/Diego de Almagro.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Central BESS Halcón de Almagro</t>
+          <t>Línea de Transmisión y Central BESS Halcón 5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BESS Halcón de Almagro SpA</t>
+          <t>BESS Halcón 5 SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>111870</v>
+        <v>104940</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160825554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160818866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Central BESS Halcón 5</t>
+          <t>Línea de Transmisión y Central BESS Halcón de Almagro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BESS Halcón 5 SpA</t>
+          <t>BESS Halcón de Almagro SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>104940</v>
+        <v>111870</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160818866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160825554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
